--- a/flashdrive/Growth_Curves/Nanobody_Slay_test_4.xlsx
+++ b/flashdrive/Growth_Curves/Nanobody_Slay_test_4.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/CodyCole/Desktop/CSB_CodingProject/flashdrive/Growth_Curves/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{533FEDB9-F188-434A-953F-D1C397EFC68C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nanobody_Slay_test_4.txt" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -318,7 +324,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -358,6 +364,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -682,16 +696,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CT42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F45" sqref="A44:F45"/>
+    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
+      <selection activeCell="BR2" sqref="BR2:BR1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:98">
+    <row r="1" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -987,7 +1001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:98">
+    <row r="2" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1195,6 +1209,9 @@
       <c r="BQ2">
         <v>0.12839999999999999</v>
       </c>
+      <c r="BR2">
+        <v>0.1268</v>
+      </c>
       <c r="BS2">
         <v>0.1298</v>
       </c>
@@ -1280,7 +1297,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="3" spans="1:98">
+    <row r="3" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -1488,6 +1505,9 @@
       <c r="BQ3">
         <v>0.13009999999999999</v>
       </c>
+      <c r="BR3">
+        <v>0.128</v>
+      </c>
       <c r="BS3">
         <v>0.13139999999999999</v>
       </c>
@@ -1573,7 +1593,7 @@
         <v>0.1103</v>
       </c>
     </row>
-    <row r="4" spans="1:98">
+    <row r="4" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -1781,6 +1801,9 @@
       <c r="BQ4">
         <v>0.1353</v>
       </c>
+      <c r="BR4">
+        <v>0.13300000000000001</v>
+      </c>
       <c r="BS4">
         <v>0.13719999999999999</v>
       </c>
@@ -1866,7 +1889,7 @@
         <v>0.1106</v>
       </c>
     </row>
-    <row r="5" spans="1:98">
+    <row r="5" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -2074,6 +2097,9 @@
       <c r="BQ5">
         <v>0.1454</v>
       </c>
+      <c r="BR5">
+        <v>0.1419</v>
+      </c>
       <c r="BS5">
         <v>0.1472</v>
       </c>
@@ -2159,7 +2185,7 @@
         <v>0.11070000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:98">
+    <row r="6" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -2367,6 +2393,9 @@
       <c r="BQ6">
         <v>0.16339999999999999</v>
       </c>
+      <c r="BR6">
+        <v>0.157</v>
+      </c>
       <c r="BS6">
         <v>0.1638</v>
       </c>
@@ -2452,7 +2481,7 @@
         <v>0.11070000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:98">
+    <row r="7" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -2660,6 +2689,9 @@
       <c r="BQ7">
         <v>0.19370000000000001</v>
       </c>
+      <c r="BR7">
+        <v>0.1827</v>
+      </c>
       <c r="BS7">
         <v>0.18959999999999999</v>
       </c>
@@ -2745,7 +2777,7 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="8" spans="1:98">
+    <row r="8" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -2953,6 +2985,9 @@
       <c r="BQ8">
         <v>0.2419</v>
       </c>
+      <c r="BR8">
+        <v>0.22520000000000001</v>
+      </c>
       <c r="BS8">
         <v>0.22589999999999999</v>
       </c>
@@ -3038,7 +3073,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="9" spans="1:98">
+    <row r="9" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -3246,6 +3281,9 @@
       <c r="BQ9">
         <v>0.32190000000000002</v>
       </c>
+      <c r="BR9">
+        <v>0.29509999999999997</v>
+      </c>
       <c r="BS9">
         <v>0.27950000000000003</v>
       </c>
@@ -3331,7 +3369,7 @@
         <v>0.1108</v>
       </c>
     </row>
-    <row r="10" spans="1:98">
+    <row r="10" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3539,6 +3577,9 @@
       <c r="BQ10">
         <v>0.44669999999999999</v>
       </c>
+      <c r="BR10">
+        <v>0.40079999999999999</v>
+      </c>
       <c r="BS10">
         <v>0.318</v>
       </c>
@@ -3624,7 +3665,7 @@
         <v>0.1109</v>
       </c>
     </row>
-    <row r="11" spans="1:98">
+    <row r="11" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -3832,6 +3873,9 @@
       <c r="BQ11">
         <v>0.62980000000000003</v>
       </c>
+      <c r="BR11">
+        <v>0.56069999999999998</v>
+      </c>
       <c r="BS11">
         <v>0.33789999999999998</v>
       </c>
@@ -3917,7 +3961,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="12" spans="1:98">
+    <row r="12" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -4125,6 +4169,9 @@
       <c r="BQ12">
         <v>0.72289999999999999</v>
       </c>
+      <c r="BR12">
+        <v>0.65820000000000001</v>
+      </c>
       <c r="BS12">
         <v>0.32950000000000002</v>
       </c>
@@ -4210,7 +4257,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="13" spans="1:98">
+    <row r="13" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -4418,6 +4465,9 @@
       <c r="BQ13">
         <v>0.83050000000000002</v>
       </c>
+      <c r="BR13">
+        <v>0.76590000000000003</v>
+      </c>
       <c r="BS13">
         <v>0.26939999999999997</v>
       </c>
@@ -4503,7 +4553,7 @@
         <v>0.1111</v>
       </c>
     </row>
-    <row r="14" spans="1:98">
+    <row r="14" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -4711,6 +4761,9 @@
       <c r="BQ14">
         <v>0.86309999999999998</v>
       </c>
+      <c r="BR14">
+        <v>0.79330000000000001</v>
+      </c>
       <c r="BS14">
         <v>0.21759999999999999</v>
       </c>
@@ -4796,7 +4849,7 @@
         <v>0.1111</v>
       </c>
     </row>
-    <row r="15" spans="1:98">
+    <row r="15" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -5004,6 +5057,9 @@
       <c r="BQ15">
         <v>0.87690000000000001</v>
       </c>
+      <c r="BR15">
+        <v>0.78510000000000002</v>
+      </c>
       <c r="BS15">
         <v>0.19270000000000001</v>
       </c>
@@ -5089,7 +5145,7 @@
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:98">
+    <row r="16" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -5297,6 +5353,9 @@
       <c r="BQ16">
         <v>0.9294</v>
       </c>
+      <c r="BR16">
+        <v>0.7752</v>
+      </c>
       <c r="BS16">
         <v>0.17169999999999999</v>
       </c>
@@ -5382,7 +5441,7 @@
         <v>0.11119999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:98">
+    <row r="17" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -5590,6 +5649,9 @@
       <c r="BQ17">
         <v>0.93899999999999995</v>
       </c>
+      <c r="BR17">
+        <v>0.73719999999999997</v>
+      </c>
       <c r="BS17">
         <v>0.16289999999999999</v>
       </c>
@@ -5675,7 +5737,7 @@
         <v>0.1114</v>
       </c>
     </row>
-    <row r="18" spans="1:98">
+    <row r="18" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -5883,6 +5945,9 @@
       <c r="BQ18">
         <v>0.91859999999999997</v>
       </c>
+      <c r="BR18">
+        <v>0.67010000000000003</v>
+      </c>
       <c r="BS18">
         <v>0.1588</v>
       </c>
@@ -5968,7 +6033,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="19" spans="1:98">
+    <row r="19" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -6176,6 +6241,9 @@
       <c r="BQ19">
         <v>0.87409999999999999</v>
       </c>
+      <c r="BR19">
+        <v>0.5907</v>
+      </c>
       <c r="BS19">
         <v>0.1573</v>
       </c>
@@ -6261,7 +6329,7 @@
         <v>0.111</v>
       </c>
     </row>
-    <row r="20" spans="1:98">
+    <row r="20" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -6469,6 +6537,9 @@
       <c r="BQ20">
         <v>0.81950000000000001</v>
       </c>
+      <c r="BR20">
+        <v>0.5101</v>
+      </c>
       <c r="BS20">
         <v>0.15840000000000001</v>
       </c>
@@ -6554,7 +6625,7 @@
         <v>0.1114</v>
       </c>
     </row>
-    <row r="21" spans="1:98">
+    <row r="21" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -6762,6 +6833,9 @@
       <c r="BQ21">
         <v>0.76219999999999999</v>
       </c>
+      <c r="BR21">
+        <v>0.44779999999999998</v>
+      </c>
       <c r="BS21">
         <v>0.1605</v>
       </c>
@@ -6847,7 +6921,7 @@
         <v>0.1115</v>
       </c>
     </row>
-    <row r="22" spans="1:98">
+    <row r="22" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -7055,6 +7129,9 @@
       <c r="BQ22">
         <v>0.69689999999999996</v>
       </c>
+      <c r="BR22">
+        <v>0.39689999999999998</v>
+      </c>
       <c r="BS22">
         <v>0.16400000000000001</v>
       </c>
@@ -7140,7 +7217,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="23" spans="1:98">
+    <row r="23" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -7348,6 +7425,9 @@
       <c r="BQ23">
         <v>0.63790000000000002</v>
       </c>
+      <c r="BR23">
+        <v>0.35809999999999997</v>
+      </c>
       <c r="BS23">
         <v>0.1711</v>
       </c>
@@ -7433,7 +7513,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="24" spans="1:98">
+    <row r="24" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -7641,6 +7721,9 @@
       <c r="BQ24">
         <v>0.58889999999999998</v>
       </c>
+      <c r="BR24">
+        <v>0.3271</v>
+      </c>
       <c r="BS24">
         <v>0.18029999999999999</v>
       </c>
@@ -7726,7 +7809,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="25" spans="1:98">
+    <row r="25" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -7934,6 +8017,9 @@
       <c r="BQ25">
         <v>0.55400000000000005</v>
       </c>
+      <c r="BR25">
+        <v>0.30590000000000001</v>
+      </c>
       <c r="BS25">
         <v>0.19650000000000001</v>
       </c>
@@ -8019,7 +8105,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="26" spans="1:98">
+    <row r="26" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -8227,6 +8313,9 @@
       <c r="BQ26">
         <v>0.52180000000000004</v>
       </c>
+      <c r="BR26">
+        <v>0.29549999999999998</v>
+      </c>
       <c r="BS26">
         <v>0.22040000000000001</v>
       </c>
@@ -8312,7 +8401,7 @@
         <v>0.1119</v>
       </c>
     </row>
-    <row r="27" spans="1:98">
+    <row r="27" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -8520,6 +8609,9 @@
       <c r="BQ27">
         <v>0.50839999999999996</v>
       </c>
+      <c r="BR27">
+        <v>0.28860000000000002</v>
+      </c>
       <c r="BS27">
         <v>0.25469999999999998</v>
       </c>
@@ -8605,7 +8697,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:98">
+    <row r="28" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -8813,6 +8905,9 @@
       <c r="BQ28">
         <v>0.49409999999999998</v>
       </c>
+      <c r="BR28">
+        <v>0.28939999999999999</v>
+      </c>
       <c r="BS28">
         <v>0.3034</v>
       </c>
@@ -8898,7 +8993,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:98">
+    <row r="29" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -9106,6 +9201,9 @@
       <c r="BQ29">
         <v>0.4985</v>
       </c>
+      <c r="BR29">
+        <v>0.2999</v>
+      </c>
       <c r="BS29">
         <v>0.38419999999999999</v>
       </c>
@@ -9191,7 +9289,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="30" spans="1:98">
+    <row r="30" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -9399,6 +9497,9 @@
       <c r="BQ30">
         <v>0.50600000000000001</v>
       </c>
+      <c r="BR30">
+        <v>0.32269999999999999</v>
+      </c>
       <c r="BS30">
         <v>0.48430000000000001</v>
       </c>
@@ -9484,7 +9585,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="31" spans="1:98">
+    <row r="31" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -9692,6 +9793,9 @@
       <c r="BQ31">
         <v>0.52049999999999996</v>
       </c>
+      <c r="BR31">
+        <v>0.36030000000000001</v>
+      </c>
       <c r="BS31">
         <v>0.61009999999999998</v>
       </c>
@@ -9777,7 +9881,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:98">
+    <row r="32" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -9985,6 +10089,9 @@
       <c r="BQ32">
         <v>0.55110000000000003</v>
       </c>
+      <c r="BR32">
+        <v>0.41620000000000001</v>
+      </c>
       <c r="BS32">
         <v>0.75819999999999999</v>
       </c>
@@ -10070,7 +10177,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="33" spans="1:98">
+    <row r="33" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -10278,6 +10385,9 @@
       <c r="BQ33">
         <v>0.60399999999999998</v>
       </c>
+      <c r="BR33">
+        <v>0.4975</v>
+      </c>
       <c r="BS33">
         <v>0.86</v>
       </c>
@@ -10363,7 +10473,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="34" spans="1:98">
+    <row r="34" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -10571,6 +10681,9 @@
       <c r="BQ34">
         <v>0.67359999999999998</v>
       </c>
+      <c r="BR34">
+        <v>0.6069</v>
+      </c>
       <c r="BS34">
         <v>0.9657</v>
       </c>
@@ -10656,7 +10769,7 @@
         <v>0.11169999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:98">
+    <row r="35" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -10864,6 +10977,9 @@
       <c r="BQ35">
         <v>0.74419999999999997</v>
       </c>
+      <c r="BR35">
+        <v>0.71260000000000001</v>
+      </c>
       <c r="BS35">
         <v>1.0848</v>
       </c>
@@ -10949,7 +11065,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="36" spans="1:98">
+    <row r="36" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -11157,6 +11273,9 @@
       <c r="BQ36">
         <v>0.81779999999999997</v>
       </c>
+      <c r="BR36">
+        <v>0.80900000000000005</v>
+      </c>
       <c r="BS36">
         <v>1.1443000000000001</v>
       </c>
@@ -11242,7 +11361,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="37" spans="1:98">
+    <row r="37" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -11450,6 +11569,9 @@
       <c r="BQ37">
         <v>0.89459999999999995</v>
       </c>
+      <c r="BR37">
+        <v>0.90429999999999999</v>
+      </c>
       <c r="BS37">
         <v>1.2246999999999999</v>
       </c>
@@ -11535,7 +11657,7 @@
         <v>0.1119</v>
       </c>
     </row>
-    <row r="38" spans="1:98">
+    <row r="38" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -11743,6 +11865,9 @@
       <c r="BQ38">
         <v>0.95789999999999997</v>
       </c>
+      <c r="BR38">
+        <v>0.97840000000000005</v>
+      </c>
       <c r="BS38">
         <v>1.2843</v>
       </c>
@@ -11828,7 +11953,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="39" spans="1:98">
+    <row r="39" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -12036,6 +12161,9 @@
       <c r="BQ39">
         <v>1.006</v>
       </c>
+      <c r="BR39">
+        <v>1.0536000000000001</v>
+      </c>
       <c r="BS39">
         <v>1.3423</v>
       </c>
@@ -12121,7 +12249,7 @@
         <v>0.1118</v>
       </c>
     </row>
-    <row r="40" spans="1:98">
+    <row r="40" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -12329,6 +12457,9 @@
       <c r="BQ40">
         <v>1.0886</v>
       </c>
+      <c r="BR40">
+        <v>1.1215999999999999</v>
+      </c>
       <c r="BS40">
         <v>1.365</v>
       </c>
@@ -12414,7 +12545,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="41" spans="1:98">
+    <row r="41" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -12622,6 +12753,9 @@
       <c r="BQ41">
         <v>1.1617</v>
       </c>
+      <c r="BR41">
+        <v>1.1809000000000001</v>
+      </c>
       <c r="BS41">
         <v>1.3842000000000001</v>
       </c>
@@ -12707,7 +12841,7 @@
         <v>0.1116</v>
       </c>
     </row>
-    <row r="42" spans="1:98">
+    <row r="42" spans="1:98" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -12914,6 +13048,9 @@
       </c>
       <c r="BQ42">
         <v>1.2016</v>
+      </c>
+      <c r="BR42">
+        <v>1.2355</v>
       </c>
       <c r="BS42">
         <v>1.4060999999999999</v>
